--- a/doc/item.xlsx
+++ b/doc/item.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14760" windowHeight="13170"/>
+    <workbookView windowWidth="16605" windowHeight="13170"/>
   </bookViews>
   <sheets>
-    <sheet name="Item(yes)" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemTable(yes)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Item(yes)'!$A$2:$M$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ItemTable(yes)'!$A$2:$M$12</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -533,6 +533,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -541,79 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -627,18 +635,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,25 +667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,6 +698,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,7 +746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,55 +776,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,19 +836,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,55 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,32 +925,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +955,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -994,148 +994,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1537,7 +1537,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
